--- a/data/IAM_SigninGoogle_TC03.xlsx
+++ b/data/IAM_SigninGoogle_TC03.xlsx
@@ -3,19 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESRI_Automation\ESRI_IAM\Stable_Auto_POM_Framework_1\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10455" tabRatio="141"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +49,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>ESRIActStgURL</t>
+  </si>
+  <si>
+    <t>https://accounts-stg.esri.com/</t>
   </si>
 </sst>
 </file>
@@ -404,54 +414,63 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625"/>
-    <col min="2" max="2" width="14.140625"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="23.28515625"/>
+    <col min="3" max="3" width="14.140625"/>
+    <col min="4" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
